--- a/data/uu/original_data/UUAPCSweden2018_utan_bibsam_utan_dublett.xlsx
+++ b/data/uu/original_data/UUAPCSweden2018_utan_bibsam_utan_dublett.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="517">
   <si>
     <t>institution</t>
   </si>
@@ -253,9 +253,6 @@
     <t>10.2478/raon-2018-0022</t>
   </si>
   <si>
-    <t>Artikel utan DOI 2</t>
-  </si>
-  <si>
     <t>10.1016/j.ejvssr.2018.05.010</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>10.1016/j.celrep.2018.06.064</t>
   </si>
   <si>
-    <t>Artikel utan DOI 9</t>
-  </si>
-  <si>
     <t>10.1080/20008198.2018.1472990</t>
   </si>
   <si>
@@ -415,9 +409,6 @@
     <t>10.1371/journal.pone.0195899</t>
   </si>
   <si>
-    <t>Artikel utan DOI 4</t>
-  </si>
-  <si>
     <t>10.1016/j.burnso.2018.07.001</t>
   </si>
   <si>
@@ -436,9 +427,6 @@
     <t>10.1371/journal.pone.0194668</t>
   </si>
   <si>
-    <t>Artikel utan DOI 6</t>
-  </si>
-  <si>
     <t>10.1186/s12881-018-0550-8</t>
   </si>
   <si>
@@ -454,18 +442,12 @@
     <t>10.1097/MD.0000000000011510</t>
   </si>
   <si>
-    <t>Artikel utan DOI 7</t>
-  </si>
-  <si>
     <t>10.1038/s41598-018-36005-y</t>
   </si>
   <si>
     <t>10.1186/s13550-018-0426-0</t>
   </si>
   <si>
-    <t>Artikel utan DOI 5</t>
-  </si>
-  <si>
     <t>10.1038/s41598-018-33087-6</t>
   </si>
   <si>
@@ -475,9 +457,6 @@
     <t>10.1371/journal.pone.0206340</t>
   </si>
   <si>
-    <t>Ännu ej publicerad 5</t>
-  </si>
-  <si>
     <t>10.1186/s12886-018-0940-x</t>
   </si>
   <si>
@@ -604,9 +583,6 @@
     <t>10.1073/pnas.1722333115</t>
   </si>
   <si>
-    <t>Artikel utan DOI 3</t>
-  </si>
-  <si>
     <t>10.1038/s41467-018-04059-1</t>
   </si>
   <si>
@@ -928,9 +904,6 @@
     <t>10.1016/j.srhc.2018.12.005</t>
   </si>
   <si>
-    <t>Ännu ej publicerad 4</t>
-  </si>
-  <si>
     <t>10.1080/20008198.2018.1546083</t>
   </si>
   <si>
@@ -1162,9 +1135,6 @@
     <t>10.1021/jacs.8b00251</t>
   </si>
   <si>
-    <t>Artikel utan DOI 8</t>
-  </si>
-  <si>
     <t>10.1186/s13068-018-1268-8</t>
   </si>
   <si>
@@ -1622,9 +1592,6 @@
   </si>
   <si>
     <t>10.1534/genetics.115.185058</t>
-  </si>
-  <si>
-    <t>Artikel utan DOI 1</t>
   </si>
   <si>
     <t>10.1073/pnas.1810845115</t>
@@ -1981,7 +1948,7 @@
   <dimension ref="A1:K461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+      <selection activeCell="D353" sqref="D353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2048,10 +2015,10 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2" t="s">
         <v>467</v>
-      </c>
-      <c r="F2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2068,10 +2035,10 @@
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2085,13 +2052,13 @@
         <v>4199.0084530112026</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F4" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2105,13 +2072,13 @@
         <v>5876.1950724892022</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F5" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2125,13 +2092,13 @@
         <v>3218.2368598087101</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F6" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2145,13 +2112,13 @@
         <v>3568.9081283453743</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2165,13 +2132,13 @@
         <v>645.39764251659881</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E8" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F8" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2185,13 +2152,13 @@
         <v>1295.2850331978123</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F9" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2205,13 +2172,13 @@
         <v>1750.1535581619819</v>
       </c>
       <c r="D10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F10" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2225,13 +2192,13 @@
         <v>1764.2126609923268</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E11" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F11" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2245,13 +2212,13 @@
         <v>2409.868671210038</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E12" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F12" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2265,13 +2232,13 @@
         <v>2668.9578519406828</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E13" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F13" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2285,13 +2252,13 @@
         <v>2668.9578519406828</v>
       </c>
       <c r="D14" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F14" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2305,13 +2272,13 @@
         <v>618.85304240155222</v>
       </c>
       <c r="D15" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F15" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2325,13 +2292,13 @@
         <v>1603.9320639191942</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E16" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F16" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,14 +2311,11 @@
       <c r="C17">
         <v>1687.2912340226389</v>
       </c>
-      <c r="D17" t="s">
-        <v>369</v>
-      </c>
       <c r="E17" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F17" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,13 +2329,13 @@
         <v>1764.2126609923268</v>
       </c>
       <c r="D18" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E18" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F18" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,13 +2349,13 @@
         <v>2170.7098774459619</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E19" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F19" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,13 +2369,13 @@
         <v>2094.3315101348385</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E20" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F20" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,13 +2389,13 @@
         <v>3924.8783721859859</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F21" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,13 +2409,13 @@
         <v>2138.3047178917195</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F22" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,13 +2429,13 @@
         <v>2257.2737820156581</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F23" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2485,13 +2449,13 @@
         <v>2213.3278734875739</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E24" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F24" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2505,13 +2469,13 @@
         <v>690.81868437216656</v>
       </c>
       <c r="D25" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E25" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F25" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2525,13 +2489,13 @@
         <v>1547.175992278218</v>
       </c>
       <c r="D26" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E26" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F26" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2548,10 +2512,10 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F27" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2568,10 +2532,10 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F28" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2588,10 +2552,10 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F29" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2608,10 +2572,10 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F30" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2628,10 +2592,10 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F31" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2648,10 +2612,10 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F32" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,10 +2632,10 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F33" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2688,10 +2652,10 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F34" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2708,10 +2672,10 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F35" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2728,10 +2692,10 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F36" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2748,10 +2712,10 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F37" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2768,10 +2732,10 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F38" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2788,10 +2752,10 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F39" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2808,10 +2772,10 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F40" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2828,10 +2792,10 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F41" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2848,10 +2812,10 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F42" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2868,10 +2832,10 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F43" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,10 +2852,10 @@
         <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F44" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2908,10 +2872,10 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F45" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2928,10 +2892,10 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F46" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2948,10 +2912,10 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F47" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,10 +2932,10 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F48" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2988,10 +2952,10 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F49" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3008,10 +2972,10 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F50" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3025,13 +2989,13 @@
         <v>768.57761268244167</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F51" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3045,13 +3009,13 @@
         <v>905.55441808768899</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F52" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3065,13 +3029,13 @@
         <v>930.64533426930689</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F53" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,13 +3049,13 @@
         <v>1136.7389121257324</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F54" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3105,13 +3069,13 @@
         <v>1759.0940555929294</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,13 +3089,13 @@
         <v>1258.6972418029191</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F56" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,13 +3109,13 @@
         <v>1265.1652090828434</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E57" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F57" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3165,13 +3129,13 @@
         <v>1301.4566088508</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E58" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F58" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3185,13 +3149,13 @@
         <v>1304.4946230268995</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F59" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,13 +3169,13 @@
         <v>1329.7220353525013</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F60" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,13 +3189,13 @@
         <v>1374.7033646299492</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F61" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,13 +3209,13 @@
         <v>1505.1537044078505</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F62" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,13 +3229,13 @@
         <v>1514.1780494701025</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E63" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F63" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3285,13 +3249,13 @@
         <v>1558.1473573371552</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E64" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F64" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,13 +3269,13 @@
         <v>1757.0456384607137</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F65" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,13 +3289,13 @@
         <v>1757.3264305283374</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F66" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3345,13 +3309,13 @@
         <v>1759.0872307857303</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F67" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,13 +3329,13 @@
         <v>1759.4889194380257</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E68" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F68" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,13 +3349,13 @@
         <v>2241.2325601801749</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F69" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,13 +3369,13 @@
         <v>916.71785272066063</v>
       </c>
       <c r="D70" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E70" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F70" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3425,13 +3389,13 @@
         <v>1422.9606013630114</v>
       </c>
       <c r="D71" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F71" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3445,13 +3409,13 @@
         <v>1789.2070549006989</v>
       </c>
       <c r="D72" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E72" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F72" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,13 +3429,13 @@
         <v>1758.7069915274892</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F73" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,13 +3449,13 @@
         <v>1496.4530502013317</v>
       </c>
       <c r="D74" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E74" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F74" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3505,13 +3469,13 @@
         <v>1485.2155176616259</v>
       </c>
       <c r="D75" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E75" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F75" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,13 +3489,13 @@
         <v>1541.7590453069702</v>
       </c>
       <c r="D76" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E76" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F76" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,13 +3509,13 @@
         <v>1510.685698129028</v>
       </c>
       <c r="D77" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E77" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F77" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3565,13 +3529,13 @@
         <v>931.52670937046014</v>
       </c>
       <c r="D78" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E78" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F78" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3585,13 +3549,13 @@
         <v>1064.00499185898</v>
       </c>
       <c r="D79" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E79" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F79" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3605,13 +3569,13 @@
         <v>1486.261663108017</v>
       </c>
       <c r="D80" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E80" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F80" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,13 +3589,13 @@
         <v>1574.1827293378963</v>
       </c>
       <c r="D81" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E81" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F81" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,13 +3609,13 @@
         <v>1714.6450612770186</v>
       </c>
       <c r="D82" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E82" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F82" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,13 +3629,13 @@
         <v>2112.4591730283619</v>
       </c>
       <c r="D83" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E83" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F83" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,13 +3649,13 @@
         <v>1584.7699552487643</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E84" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F84" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3708,10 +3672,10 @@
         <v>57</v>
       </c>
       <c r="E85" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F85" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3728,10 +3692,10 @@
         <v>58</v>
       </c>
       <c r="E86" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F86" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3748,10 +3712,10 @@
         <v>59</v>
       </c>
       <c r="E87" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F87" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,10 +3732,10 @@
         <v>60</v>
       </c>
       <c r="E88" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F88" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3788,10 +3752,10 @@
         <v>61</v>
       </c>
       <c r="E89" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F89" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,13 +3769,13 @@
         <v>1155.8776214571938</v>
       </c>
       <c r="D90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E90" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F90" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,13 +3789,13 @@
         <v>1012.5088966236704</v>
       </c>
       <c r="D91" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E91" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F91" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,13 +3809,13 @@
         <v>1462.4586855421335</v>
       </c>
       <c r="D92" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E92" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F92" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,13 +3829,13 @@
         <v>1462.4586855421335</v>
       </c>
       <c r="D93" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E93" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F93" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3885,13 +3849,13 @@
         <v>1462.4586855421335</v>
       </c>
       <c r="D94" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E94" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F94" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,13 +3869,13 @@
         <v>1462.4586855421335</v>
       </c>
       <c r="D95" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E95" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F95" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,13 +3889,13 @@
         <v>1012.5088966236704</v>
       </c>
       <c r="D96" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E96" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F96" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,13 +3909,13 @@
         <v>1462.4586855421335</v>
       </c>
       <c r="D97" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E97" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F97" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3968,10 +3932,10 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F98" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3988,10 +3952,10 @@
         <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F99" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4008,10 +3972,10 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F100" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,13 +3989,13 @@
         <v>2573.299404291829</v>
       </c>
       <c r="D101" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E101" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F101" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,13 +4009,13 @@
         <v>556.03264207786128</v>
       </c>
       <c r="D102" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E102" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F102" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,13 +4029,13 @@
         <v>3661.3530667758637</v>
       </c>
       <c r="D103" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E103" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F103" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,13 +4049,13 @@
         <v>1087.1176889252879</v>
       </c>
       <c r="D104" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E104" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F104" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,13 +4069,13 @@
         <v>1230.4103659071632</v>
       </c>
       <c r="D105" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E105" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F105" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,13 +4089,13 @@
         <v>1332.9735684966899</v>
       </c>
       <c r="D106" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E106" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F106" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4145,13 +4109,13 @@
         <v>1430.0837501340586</v>
       </c>
       <c r="D107" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E107" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F107" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4168,10 +4132,10 @@
         <v>63</v>
       </c>
       <c r="E108" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F108" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4188,10 +4152,10 @@
         <v>64</v>
       </c>
       <c r="E109" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F109" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4204,14 +4168,11 @@
       <c r="C110">
         <v>947.88187233710642</v>
       </c>
-      <c r="D110" t="s">
-        <v>66</v>
-      </c>
       <c r="E110" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F110" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4228,10 +4189,10 @@
         <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F111" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,13 +4206,13 @@
         <v>221.24854972847018</v>
       </c>
       <c r="D112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E112" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F112" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,13 +4226,13 @@
         <v>447.934520849786</v>
       </c>
       <c r="D113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E113" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F113" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,13 +4246,13 @@
         <v>2405.2804508272643</v>
       </c>
       <c r="D114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E114" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F114" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,13 +4266,13 @@
         <v>1332.1974904208955</v>
       </c>
       <c r="D115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E115" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F115" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,13 +4286,13 @@
         <v>1415.9905232677177</v>
       </c>
       <c r="D116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E116" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F116" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,13 +4306,13 @@
         <v>1518.4942525373658</v>
       </c>
       <c r="D117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E117" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F117" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,13 +4326,13 @@
         <v>2699.609036044732</v>
       </c>
       <c r="D118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E118" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F118" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4385,13 +4346,13 @@
         <v>1785.36176353018</v>
       </c>
       <c r="D119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E119" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F119" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4405,13 +4366,13 @@
         <v>1809.4864820068833</v>
       </c>
       <c r="D120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E120" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F120" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4425,13 +4386,13 @@
         <v>2004.2333304084159</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E121" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F121" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,13 +4406,13 @@
         <v>2011.6928446771381</v>
       </c>
       <c r="D122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E122" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F122" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4465,13 +4426,13 @@
         <v>2132.1653163298138</v>
       </c>
       <c r="D123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E123" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F123" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4485,13 +4446,13 @@
         <v>2264.8736923181918</v>
       </c>
       <c r="D124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E124" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F124" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,13 +4466,13 @@
         <v>2324.6863026119513</v>
       </c>
       <c r="D125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E125" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F125" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4525,13 +4486,13 @@
         <v>2410.9976893152771</v>
       </c>
       <c r="D126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E126" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F126" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4545,13 +4506,13 @@
         <v>2474.4908206343171</v>
       </c>
       <c r="D127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E127" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F127" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4565,13 +4526,13 @@
         <v>2536.8851579942866</v>
       </c>
       <c r="D128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E128" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F128" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4585,13 +4546,13 @@
         <v>2558.5977946123021</v>
       </c>
       <c r="D129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E129" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F129" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4605,13 +4566,13 @@
         <v>2593.4345354743728</v>
       </c>
       <c r="D130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E130" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F130" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4625,13 +4586,13 @@
         <v>2615.4035898485868</v>
       </c>
       <c r="D131" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E131" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F131" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,13 +4606,13 @@
         <v>2683.4956662474287</v>
       </c>
       <c r="D132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E132" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F132" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4665,13 +4626,13 @@
         <v>2757.1372858716741</v>
       </c>
       <c r="D133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E133" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F133" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4685,13 +4646,13 @@
         <v>2761.7898544366121</v>
       </c>
       <c r="D134" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E134" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F134" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,13 +4666,13 @@
         <v>2763.6598516091917</v>
       </c>
       <c r="D135" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E135" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F135" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4725,13 +4686,13 @@
         <v>2786.6906509891096</v>
       </c>
       <c r="D136" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E136" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F136" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4745,13 +4706,13 @@
         <v>2787.545701833923</v>
       </c>
       <c r="D137" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E137" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F137" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4765,13 +4726,13 @@
         <v>2869.4004894361733</v>
       </c>
       <c r="D138" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E138" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F138" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4785,13 +4746,13 @@
         <v>2879.137539364513</v>
       </c>
       <c r="D139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E139" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F139" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,13 +4766,13 @@
         <v>2959.6995134887438</v>
       </c>
       <c r="D140" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E140" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F140" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4825,13 +4786,13 @@
         <v>3011.5046749929311</v>
       </c>
       <c r="D141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E141" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F141" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,13 +4806,13 @@
         <v>3129.5007166047558</v>
       </c>
       <c r="D142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E142" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F142" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4865,13 +4826,13 @@
         <v>3171.785272066064</v>
       </c>
       <c r="D143" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E143" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F143" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4885,13 +4846,13 @@
         <v>3234.2829565064785</v>
       </c>
       <c r="D144" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E144" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F144" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4905,13 +4866,13 @@
         <v>3851.1187808944392</v>
       </c>
       <c r="D145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E145" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F145" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,13 +4886,13 @@
         <v>4694.7721976854154</v>
       </c>
       <c r="D146" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E146" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F146" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4945,13 +4906,13 @@
         <v>4366.0475591564536</v>
       </c>
       <c r="D147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E147" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F147" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4965,13 +4926,13 @@
         <v>4373.2467557791497</v>
       </c>
       <c r="D148" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E148" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F148" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4985,13 +4946,13 @@
         <v>1241.3476069301041</v>
       </c>
       <c r="D149" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E149" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F149" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5005,13 +4966,13 @@
         <v>2224.7028771437208</v>
       </c>
       <c r="D150" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F150" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5025,13 +4986,13 @@
         <v>2798.7364356956914</v>
       </c>
       <c r="D151" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E151" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F151" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5045,13 +5006,13 @@
         <v>2818.1773864888319</v>
       </c>
       <c r="D152" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E152" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F152" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5065,13 +5026,13 @@
         <v>2374.875934754843</v>
       </c>
       <c r="D153" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E153" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F153" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5085,13 +5046,13 @@
         <v>2185.3978375110905</v>
       </c>
       <c r="D154" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E154" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F154" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5105,13 +5066,13 @@
         <v>2653.9900747803872</v>
       </c>
       <c r="D155" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E155" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F155" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5125,13 +5086,13 @@
         <v>447.934520849786</v>
       </c>
       <c r="D156" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E156" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F156" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5145,13 +5106,13 @@
         <v>532.11169284467712</v>
       </c>
       <c r="D157" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E157" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F157" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5165,13 +5126,13 @@
         <v>1138.3066678366336</v>
       </c>
       <c r="D158" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E158" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F158" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,13 +5146,13 @@
         <v>3032.8546218569327</v>
       </c>
       <c r="D159" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E159" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F159" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5205,13 +5166,13 @@
         <v>1775.5125917692826</v>
       </c>
       <c r="D160" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E160" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F160" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5225,13 +5186,13 @@
         <v>3919.1494340284885</v>
       </c>
       <c r="D161" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E161" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F161" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5245,13 +5206,13 @@
         <v>2873.5597219378551</v>
       </c>
       <c r="D162" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E162" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F162" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5265,13 +5226,13 @@
         <v>2090.0153070675751</v>
       </c>
       <c r="D163" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E163" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F163" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,13 +5246,13 @@
         <v>4102.0055183441063</v>
       </c>
       <c r="D164" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E164" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F164" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,13 +5266,13 @@
         <v>2161.1795216785126</v>
       </c>
       <c r="D165" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E165" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F165" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,13 +5286,13 @@
         <v>2394.517729874131</v>
       </c>
       <c r="D166" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E166" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F166" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,13 +5306,13 @@
         <v>2683.4956662474287</v>
       </c>
       <c r="D167" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E167" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F167" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5365,13 +5326,13 @@
         <v>4272.4784774830105</v>
       </c>
       <c r="D168" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E168" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F168" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5385,13 +5346,13 @@
         <v>2899.5710121189072</v>
       </c>
       <c r="D169" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E169" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F169" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5405,13 +5366,13 @@
         <v>2918.7818694121888</v>
       </c>
       <c r="D170" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E170" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F170" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5425,13 +5386,13 @@
         <v>2959.6995134887438</v>
       </c>
       <c r="D171" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E171" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F171" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5445,13 +5406,13 @@
         <v>2969.107997699065</v>
       </c>
       <c r="D172" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E172" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F172" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5465,13 +5426,13 @@
         <v>3045.955326762019</v>
       </c>
       <c r="D173" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E173" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F173" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5485,13 +5446,13 @@
         <v>3092.4303138436339</v>
       </c>
       <c r="D174" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E174" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F174" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5505,13 +5466,13 @@
         <v>3135.5396960035878</v>
       </c>
       <c r="D175" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E175" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F175" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5525,13 +5486,13 @@
         <v>3141.7366209404581</v>
       </c>
       <c r="D176" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E176" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F176" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5545,13 +5506,13 @@
         <v>3155.4184094299335</v>
       </c>
       <c r="D177" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E177" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F177" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5565,13 +5526,13 @@
         <v>3217.264812269053</v>
       </c>
       <c r="D178" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E178" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F178" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5585,13 +5546,13 @@
         <v>3259.696588571373</v>
       </c>
       <c r="D179" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E179" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F179" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5605,13 +5566,13 @@
         <v>3728.4204471223688</v>
       </c>
       <c r="D180" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E180" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F180" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5625,13 +5586,13 @@
         <v>5824.6755779149244</v>
       </c>
       <c r="D181" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E181" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F181" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5645,13 +5606,13 @@
         <v>2967.5577914923902</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E182" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F182" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5668,10 +5629,10 @@
         <v>16</v>
       </c>
       <c r="E183" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F183" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5688,10 +5649,10 @@
         <v>17</v>
       </c>
       <c r="E184" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F184" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5708,10 +5669,10 @@
         <v>18</v>
       </c>
       <c r="E185" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F185" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5728,10 +5689,10 @@
         <v>19</v>
       </c>
       <c r="E186" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F186" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5745,13 +5706,13 @@
         <v>1343.2283287997113</v>
       </c>
       <c r="D187" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E187" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F187" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,13 +5726,13 @@
         <v>1943.3657999161524</v>
       </c>
       <c r="D188" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E188" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F188" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5785,13 +5746,13 @@
         <v>2299.5086138816578</v>
       </c>
       <c r="D189" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E189" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F189" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5805,13 +5766,13 @@
         <v>937.29367145378149</v>
       </c>
       <c r="D190" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E190" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F190" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,13 +5786,13 @@
         <v>1678.8499224896896</v>
       </c>
       <c r="D191" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E191" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F191" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5845,13 +5806,13 @@
         <v>1692.5687599325317</v>
       </c>
       <c r="D192" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E192" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F192" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5865,13 +5826,13 @@
         <v>1741.6400986672124</v>
       </c>
       <c r="D193" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E193" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F193" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5885,13 +5846,13 @@
         <v>1806.3548704749091</v>
       </c>
       <c r="D194" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E194" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F194" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5905,13 +5866,13 @@
         <v>1807.1202238536762</v>
       </c>
       <c r="D195" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E195" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F195" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5925,13 +5886,13 @@
         <v>1949.8162176918502</v>
       </c>
       <c r="D196" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E196" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F196" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5945,13 +5906,13 @@
         <v>2001.3805609991518</v>
       </c>
       <c r="D197" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E197" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F197" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5965,13 +5926,13 @@
         <v>2116.8787231760703</v>
       </c>
       <c r="D198" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E198" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F198" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5985,13 +5946,13 @@
         <v>2120.1790049431102</v>
       </c>
       <c r="D199" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E199" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F199" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6005,13 +5966,13 @@
         <v>2305.1829535815614</v>
       </c>
       <c r="D200" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E200" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F200" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -6025,13 +5986,13 @@
         <v>2586.5960786607775</v>
       </c>
       <c r="D201" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E201" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F201" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6045,13 +6006,13 @@
         <v>1460.8987296108885</v>
       </c>
       <c r="D202" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E202" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F202" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,13 +6026,13 @@
         <v>2117.1058917585578</v>
       </c>
       <c r="D203" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E203" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F203" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6085,13 +6046,13 @@
         <v>2331.8192011075685</v>
       </c>
       <c r="D204" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E204" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F204" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6105,13 +6066,13 @@
         <v>2098.6369885050749</v>
       </c>
       <c r="D205" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E205" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F205" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6125,13 +6086,13 @@
         <v>1518.2475845057377</v>
       </c>
       <c r="D206" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E206" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F206" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6145,13 +6106,13 @@
         <v>1694.655200990572</v>
       </c>
       <c r="D207" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E207" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F207" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6165,13 +6126,13 @@
         <v>2063.3888092661382</v>
       </c>
       <c r="D208" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E208" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F208" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6185,13 +6146,13 @@
         <v>2264.0508155644602</v>
       </c>
       <c r="D209" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E209" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F209" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6205,13 +6166,13 @@
         <v>2039.3060146050875</v>
       </c>
       <c r="D210" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E210" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F210" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6225,13 +6186,13 @@
         <v>2561.3150428500394</v>
       </c>
       <c r="D211" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E211" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F211" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6245,13 +6206,13 @@
         <v>1850.125283960728</v>
       </c>
       <c r="D212" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E212" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F212" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,13 +6226,13 @@
         <v>3958.2906782883383</v>
       </c>
       <c r="D213" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E213" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F213" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6284,14 +6245,11 @@
       <c r="C214">
         <v>284.47161367691359</v>
       </c>
-      <c r="D214" t="s">
-        <v>523</v>
-      </c>
       <c r="E214" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F214" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6305,13 +6263,13 @@
         <v>997.77998771534703</v>
       </c>
       <c r="D215" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E215" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F215" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6325,13 +6283,13 @@
         <v>1039.6501798824181</v>
       </c>
       <c r="D216" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E216" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F216" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6345,13 +6303,13 @@
         <v>1638.1194731248843</v>
       </c>
       <c r="D217" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E217" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F217" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6365,13 +6323,13 @@
         <v>1572.4609279787846</v>
       </c>
       <c r="D218" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E218" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F218" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6385,13 +6343,13 @@
         <v>2712.9671336784736</v>
       </c>
       <c r="D219" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E219" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F219" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6405,13 +6363,13 @@
         <v>2719.3385786851518</v>
       </c>
       <c r="D220" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E220" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F220" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6425,13 +6383,13 @@
         <v>2874.8193863523356</v>
       </c>
       <c r="D221" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E221" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F221" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6445,13 +6403,13 @@
         <v>1108.5748827595619</v>
       </c>
       <c r="D222" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E222" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F222" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6465,13 +6423,13 @@
         <v>1288.4095274308499</v>
       </c>
       <c r="D223" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E223" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F223" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6485,13 +6443,13 @@
         <v>1524.9085963321534</v>
       </c>
       <c r="D224" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E224" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F224" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6505,13 +6463,13 @@
         <v>1609.3626605048407</v>
       </c>
       <c r="D225" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E225" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F225" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6525,13 +6483,13 @@
         <v>1553.5084383866156</v>
       </c>
       <c r="D226" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E226" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F226" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6545,13 +6503,13 @@
         <v>1943.222478964969</v>
       </c>
       <c r="D227" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E227" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F227" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6565,13 +6523,13 @@
         <v>1943.222478964969</v>
       </c>
       <c r="D228" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E228" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F228" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6585,13 +6543,13 @@
         <v>2047.6322793881072</v>
       </c>
       <c r="D229" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E229" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F229" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6605,13 +6563,13 @@
         <v>2790.2015268068676</v>
       </c>
       <c r="D230" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E230" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F230" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6625,13 +6583,13 @@
         <v>1344.0229313521893</v>
       </c>
       <c r="D231" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E231" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F231" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6645,13 +6603,13 @@
         <v>3547.7609757524347</v>
       </c>
       <c r="D232" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E232" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F232" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6665,13 +6623,13 @@
         <v>2508.1439449335553</v>
       </c>
       <c r="D233" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E233" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6688,10 +6646,10 @@
         <v>22</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F234" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6708,10 +6666,10 @@
         <v>23</v>
       </c>
       <c r="E235" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6728,10 +6686,10 @@
         <v>24</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F236" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6744,14 +6702,11 @@
       <c r="C237">
         <v>412.98468318270005</v>
       </c>
-      <c r="D237" t="s">
-        <v>104</v>
-      </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F237" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6765,13 +6720,13 @@
         <v>1192.0315501087093</v>
       </c>
       <c r="D238" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6785,13 +6740,13 @@
         <v>1219.2752054754453</v>
       </c>
       <c r="D239" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6805,13 +6760,13 @@
         <v>832.95309407509239</v>
       </c>
       <c r="D240" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6825,13 +6780,13 @@
         <v>1185.2398919730517</v>
       </c>
       <c r="D241" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6845,13 +6800,13 @@
         <v>1199.8020805912233</v>
       </c>
       <c r="D242" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6865,13 +6820,13 @@
         <v>843.96930786705275</v>
       </c>
       <c r="D243" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6885,13 +6840,13 @@
         <v>906.50209131592021</v>
       </c>
       <c r="D244" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6905,13 +6860,13 @@
         <v>265.09891095576546</v>
       </c>
       <c r="D245" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6925,13 +6880,13 @@
         <v>230.43474021858881</v>
       </c>
       <c r="D246" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E246" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F246" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6945,13 +6900,13 @@
         <v>268.66536020357421</v>
       </c>
       <c r="D247" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6965,13 +6920,13 @@
         <v>430.42986535630365</v>
       </c>
       <c r="D248" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F248" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6985,13 +6940,13 @@
         <v>570.88439751577016</v>
       </c>
       <c r="D249" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7005,13 +6960,13 @@
         <v>571.48693049421354</v>
       </c>
       <c r="D250" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E250" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -7025,13 +6980,13 @@
         <v>789.11540748973846</v>
       </c>
       <c r="D251" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E251" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7045,13 +7000,13 @@
         <v>813.96940536429838</v>
       </c>
       <c r="D252" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E252" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F252" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -7065,13 +7020,13 @@
         <v>835.24330437665139</v>
       </c>
       <c r="D253" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E253" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F253" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -7085,13 +7040,13 @@
         <v>840.45355718700955</v>
       </c>
       <c r="D254" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F254" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7105,13 +7060,13 @@
         <v>852.16980120311609</v>
       </c>
       <c r="D255" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="E255" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F255" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7125,13 +7080,13 @@
         <v>943.26830267044954</v>
       </c>
       <c r="D256" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E256" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7145,13 +7100,13 @@
         <v>964.46907874852536</v>
       </c>
       <c r="D257" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E257" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F257" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -7165,13 +7120,13 @@
         <v>1052.1464018641473</v>
       </c>
       <c r="D258" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E258" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F258" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -7185,13 +7140,13 @@
         <v>1066.8382618191035</v>
       </c>
       <c r="D259" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="E259" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F259" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -7205,13 +7160,13 @@
         <v>1078.029970653329</v>
       </c>
       <c r="D260" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E260" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F260" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -7225,13 +7180,13 @@
         <v>1147.8233739896846</v>
       </c>
       <c r="D261" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E261" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F261" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7245,13 +7200,13 @@
         <v>1165.0696617820547</v>
       </c>
       <c r="D262" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E262" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F262" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -7265,13 +7220,13 @@
         <v>1226.4919516023672</v>
       </c>
       <c r="D263" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E263" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F263" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -7285,13 +7240,13 @@
         <v>1066.4862967621164</v>
       </c>
       <c r="D264" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E264" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F264" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -7305,13 +7260,13 @@
         <v>473.17558278978618</v>
       </c>
       <c r="D265" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E265" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F265" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -7325,13 +7280,13 @@
         <v>1198.6174890559341</v>
       </c>
       <c r="D266" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E266" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F266" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7345,13 +7300,13 @@
         <v>2185.311064962415</v>
       </c>
       <c r="D267" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E267" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7365,13 +7320,13 @@
         <v>2399.8011056187661</v>
       </c>
       <c r="D268" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E268" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F268" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7385,13 +7340,13 @@
         <v>2496.1176596761143</v>
       </c>
       <c r="D269" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E269" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F269" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7405,13 +7360,13 @@
         <v>3144.3982957481453</v>
       </c>
       <c r="D270" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E270" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F270" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7425,13 +7380,13 @@
         <v>3173.9165618571274</v>
       </c>
       <c r="D271" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E271" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F271" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7445,13 +7400,13 @@
         <v>3251.0749071338737</v>
       </c>
       <c r="D272" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E272" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F272" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7465,13 +7420,13 @@
         <v>2525.3843828911831</v>
       </c>
       <c r="D273" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="E273" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F273" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,14 +7439,11 @@
       <c r="C274">
         <v>647.02682149229281</v>
       </c>
-      <c r="D274" t="s">
-        <v>291</v>
-      </c>
       <c r="E274" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F274" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -7505,13 +7457,13 @@
         <v>1352.201000321741</v>
       </c>
       <c r="D275" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E275" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -7525,13 +7477,13 @@
         <v>1900.8901498532666</v>
       </c>
       <c r="D276" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E276" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F276" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -7545,13 +7497,13 @@
         <v>3420.3311006464064</v>
       </c>
       <c r="D277" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E277" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F277" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -7565,13 +7517,13 @@
         <v>2554.6745054452208</v>
       </c>
       <c r="D278" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E278" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F278" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -7585,13 +7537,13 @@
         <v>1399.9395517076641</v>
       </c>
       <c r="D279" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E279" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F279" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -7605,13 +7557,13 @@
         <v>1590.4745190948356</v>
       </c>
       <c r="D280" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E280" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F280" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -7625,13 +7577,13 @@
         <v>3133.7418467928283</v>
       </c>
       <c r="D281" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E281" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F281" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -7645,13 +7597,13 @@
         <v>2474.8427856913045</v>
       </c>
       <c r="D282" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E282" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F282" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -7665,13 +7617,13 @@
         <v>2618.9329901430283</v>
       </c>
       <c r="D283" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E283" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F283" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -7685,13 +7637,13 @@
         <v>2651.9913812434797</v>
       </c>
       <c r="D284" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E284" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F284" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -7705,13 +7657,13 @@
         <v>6115.2339446410642</v>
       </c>
       <c r="D285" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E285" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F285" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -7725,13 +7677,13 @@
         <v>3211.0230385991595</v>
       </c>
       <c r="D286" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E286" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F286" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -7745,13 +7697,13 @@
         <v>788.85606481616901</v>
       </c>
       <c r="D287" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E287" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F287" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -7765,13 +7717,13 @@
         <v>1465.952986828122</v>
       </c>
       <c r="D288" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E288" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F288" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -7785,13 +7737,13 @@
         <v>1908.4725106515741</v>
       </c>
       <c r="D289" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E289" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F289" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -7805,13 +7757,13 @@
         <v>2328.2712763364434</v>
       </c>
       <c r="D290" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E290" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F290" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -7825,13 +7777,13 @@
         <v>2279.5918765294878</v>
       </c>
       <c r="D291" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E291" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F291" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -7845,13 +7797,13 @@
         <v>2987.9064416430233</v>
       </c>
       <c r="D292" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E292" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F292" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -7865,13 +7817,13 @@
         <v>2644.8799321419169</v>
       </c>
       <c r="D293" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E293" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F293" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -7885,13 +7837,13 @@
         <v>772.72027065235409</v>
       </c>
       <c r="D294" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E294" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F294" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -7908,10 +7860,10 @@
         <v>25</v>
       </c>
       <c r="E295" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F295" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -7925,13 +7877,13 @@
         <v>1323.5299852779158</v>
       </c>
       <c r="D296" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E296" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F296" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -7945,13 +7897,13 @@
         <v>1176.1336492244093</v>
       </c>
       <c r="D297" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E297" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F297" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -7965,13 +7917,13 @@
         <v>1228.2625015843303</v>
       </c>
       <c r="D298" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E298" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F298" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -7984,14 +7936,11 @@
       <c r="C299">
         <v>1231.2400674680939</v>
       </c>
-      <c r="D299" t="s">
-        <v>120</v>
-      </c>
       <c r="E299" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F299" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -8005,13 +7954,13 @@
         <v>1291.60158725516</v>
       </c>
       <c r="D300" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E300" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F300" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -8025,13 +7974,13 @@
         <v>1402.8537443817211</v>
       </c>
       <c r="D301" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E301" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F301" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -8044,14 +7993,11 @@
       <c r="C302">
         <v>1412.0604092934375</v>
       </c>
-      <c r="D302" t="s">
-        <v>140</v>
-      </c>
       <c r="E302" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F302" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -8065,13 +8011,13 @@
         <v>1153.386566829487</v>
       </c>
       <c r="D303" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E303" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F303" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -8085,13 +8031,13 @@
         <v>1153.386566829487</v>
       </c>
       <c r="D304" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E304" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F304" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -8105,13 +8051,13 @@
         <v>1191.5606384119649</v>
       </c>
       <c r="D305" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E305" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F305" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -8125,13 +8071,13 @@
         <v>1191.6766601343511</v>
       </c>
       <c r="D306" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E306" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F306" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -8145,13 +8091,13 @@
         <v>1224.1227685317888</v>
       </c>
       <c r="D307" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E307" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F307" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -8165,13 +8111,13 @@
         <v>1267.9234061637758</v>
       </c>
       <c r="D308" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E308" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F308" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -8185,13 +8131,13 @@
         <v>1283.4030438640107</v>
       </c>
       <c r="D309" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E309" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F309" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -8205,13 +8151,13 @@
         <v>1324.4337847455809</v>
       </c>
       <c r="D310" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E310" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F310" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -8225,13 +8171,13 @@
         <v>1377.3201907046125</v>
       </c>
       <c r="D311" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E311" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F311" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -8245,13 +8191,13 @@
         <v>1396.182982830735</v>
       </c>
       <c r="D312" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E312" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F312" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -8265,13 +8211,13 @@
         <v>1413.0246570534382</v>
       </c>
       <c r="D313" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E313" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F313" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -8285,13 +8231,13 @@
         <v>1406.9593533982666</v>
       </c>
       <c r="D314" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E314" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F314" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -8305,13 +8251,13 @@
         <v>1232.350561096649</v>
       </c>
       <c r="D315" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E315" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F315" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -8325,13 +8271,13 @@
         <v>1317.1604902161512</v>
       </c>
       <c r="D316" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E316" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F316" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -8345,13 +8291,13 @@
         <v>1178.3253873078086</v>
       </c>
       <c r="D317" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E317" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F317" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -8365,13 +8311,13 @@
         <v>1218.4815778954244</v>
       </c>
       <c r="D318" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E318" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F318" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -8385,13 +8331,13 @@
         <v>1267.9234061637758</v>
       </c>
       <c r="D319" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E319" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F319" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8405,13 +8351,13 @@
         <v>1405.7620872210359</v>
       </c>
       <c r="D320" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E320" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F320" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -8425,13 +8371,13 @@
         <v>1418.9963633527352</v>
       </c>
       <c r="D321" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E321" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F321" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -8445,13 +8391,13 @@
         <v>1406.9593533982666</v>
       </c>
       <c r="D322" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E322" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F322" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -8465,13 +8411,13 @@
         <v>2646.3189914884902</v>
       </c>
       <c r="D323" t="s">
+        <v>453</v>
+      </c>
+      <c r="E323" t="s">
+        <v>457</v>
+      </c>
+      <c r="F323" t="s">
         <v>463</v>
-      </c>
-      <c r="E323" t="s">
-        <v>467</v>
-      </c>
-      <c r="F323" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -8485,13 +8431,13 @@
         <v>2232.2082151179229</v>
       </c>
       <c r="D324" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E324" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F324" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -8505,13 +8451,13 @@
         <v>2651.6306414343794</v>
       </c>
       <c r="D325" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E325" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F325" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -8525,13 +8471,13 @@
         <v>546.33556602025999</v>
       </c>
       <c r="D326" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E326" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F326" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -8545,13 +8491,13 @@
         <v>589.91195998713033</v>
       </c>
       <c r="D327" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E327" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F327" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -8565,13 +8511,13 @@
         <v>1487.3848313785136</v>
       </c>
       <c r="D328" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E328" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F328" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -8585,13 +8531,13 @@
         <v>1990.1371786247039</v>
       </c>
       <c r="D329" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E329" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F329" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -8608,10 +8554,10 @@
         <v>26</v>
       </c>
       <c r="E330" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F330" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -8628,10 +8574,10 @@
         <v>27</v>
       </c>
       <c r="E331" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F331" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -8648,10 +8594,10 @@
         <v>28</v>
       </c>
       <c r="E332" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F332" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -8668,10 +8614,10 @@
         <v>29</v>
       </c>
       <c r="E333" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F333" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -8688,10 +8634,10 @@
         <v>55</v>
       </c>
       <c r="E334" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F334" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -8705,13 +8651,13 @@
         <v>703.45432741525053</v>
       </c>
       <c r="D335" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E335" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F335" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -8725,13 +8671,13 @@
         <v>1275.0182807335691</v>
       </c>
       <c r="D336" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E336" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F336" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -8745,13 +8691,13 @@
         <v>2595.6126239433734</v>
       </c>
       <c r="D337" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E337" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F337" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -8765,13 +8711,13 @@
         <v>2927.8266888960384</v>
       </c>
       <c r="D338" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E338" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F338" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -8788,10 +8734,10 @@
         <v>65</v>
       </c>
       <c r="E339" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F339" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -8805,13 +8751,13 @@
         <v>1052.0225803621047</v>
       </c>
       <c r="D340" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E340" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F340" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -8825,13 +8771,13 @@
         <v>2568.3621437694383</v>
       </c>
       <c r="D341" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E341" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F341" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -8845,13 +8791,13 @@
         <v>2491.331519884563</v>
       </c>
       <c r="D342" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="E342" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F342" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -8865,13 +8811,13 @@
         <v>2412.7155907845604</v>
       </c>
       <c r="D343" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E343" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F343" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -8888,10 +8834,10 @@
         <v>20</v>
       </c>
       <c r="E344" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F344" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -8908,10 +8854,10 @@
         <v>21</v>
       </c>
       <c r="E345" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F345" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -8924,14 +8870,11 @@
       <c r="C346">
         <v>1292.2548188013689</v>
       </c>
-      <c r="D346" t="s">
-        <v>127</v>
-      </c>
       <c r="E346" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F346" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -8944,14 +8887,11 @@
       <c r="C347">
         <v>1357.165560072928</v>
       </c>
-      <c r="D347" t="s">
-        <v>133</v>
-      </c>
       <c r="E347" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F347" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -8965,13 +8905,13 @@
         <v>1373.6494194039019</v>
       </c>
       <c r="D348" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E348" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F348" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -8984,14 +8924,11 @@
       <c r="C349">
         <v>1377.9080990962007</v>
       </c>
-      <c r="D349" t="s">
-        <v>136</v>
-      </c>
       <c r="E349" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F349" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -9005,13 +8942,13 @@
         <v>1385.2662162293916</v>
       </c>
       <c r="D350" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E350" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F350" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -9025,13 +8962,13 @@
         <v>1395.1114881004612</v>
       </c>
       <c r="D351" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E351" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F351" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -9045,13 +8982,13 @@
         <v>2619.0568116450709</v>
       </c>
       <c r="D352" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E352" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F352" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -9064,14 +9001,11 @@
       <c r="C353">
         <v>3661.8298283073505</v>
       </c>
-      <c r="D353" t="s">
-        <v>183</v>
-      </c>
       <c r="E353" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F353" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -9085,13 +9019,13 @@
         <v>3767.8190841108735</v>
       </c>
       <c r="D354" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E354" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F354" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -9105,13 +9039,13 @@
         <v>3872.6910214786431</v>
       </c>
       <c r="D355" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E355" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F355" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -9125,13 +9059,13 @@
         <v>1371.9773416400985</v>
       </c>
       <c r="D356" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E356" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F356" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -9145,13 +9079,13 @@
         <v>3014.0678775824581</v>
       </c>
       <c r="D357" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E357" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F357" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -9165,13 +9099,13 @@
         <v>1365.9929606988601</v>
       </c>
       <c r="D358" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E358" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F358" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -9185,13 +9119,13 @@
         <v>1304.5677459611766</v>
       </c>
       <c r="D359" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E359" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F359" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -9205,13 +9139,13 @@
         <v>1311.2287577875925</v>
       </c>
       <c r="D360" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E360" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F360" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -9225,13 +9159,13 @@
         <v>1322.0880010139713</v>
       </c>
       <c r="D361" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E361" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F361" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -9245,13 +9179,13 @@
         <v>2079.1268146674856</v>
       </c>
       <c r="D362" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E362" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F362" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -9265,13 +9199,13 @@
         <v>2875.8665067711836</v>
       </c>
       <c r="D363" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E363" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F363" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -9285,13 +9219,13 @@
         <v>3646.069398539491</v>
       </c>
       <c r="D364" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E364" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F364" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -9305,13 +9239,13 @@
         <v>1514.5329394444607</v>
       </c>
       <c r="D365" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E365" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F365" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -9325,13 +9259,13 @@
         <v>1374.2071036493219</v>
       </c>
       <c r="D366" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E366" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F366" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -9345,13 +9279,13 @@
         <v>1378.762174968557</v>
       </c>
       <c r="D367" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E367" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F367" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -9365,13 +9299,13 @@
         <v>1386.1085924322638</v>
       </c>
       <c r="D368" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E368" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F368" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -9385,13 +9319,13 @@
         <v>1402.5914767907805</v>
       </c>
       <c r="D369" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E369" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F369" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -9405,13 +9339,13 @@
         <v>3853.3036941706396</v>
       </c>
       <c r="D370" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E370" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F370" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -9425,13 +9359,13 @@
         <v>2428.2196027962209</v>
       </c>
       <c r="D371" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E371" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F371" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -9445,13 +9379,13 @@
         <v>2943.8981348776897</v>
       </c>
       <c r="D372" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E372" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F372" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -9465,13 +9399,13 @@
         <v>3826.9150896487172</v>
       </c>
       <c r="D373" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E373" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F373" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -9485,13 +9419,13 @@
         <v>1350.4450749266334</v>
       </c>
       <c r="D374" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E374" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F374" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -9505,13 +9439,13 @@
         <v>1030.4279154113897</v>
       </c>
       <c r="D375" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E375" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F375" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -9525,13 +9459,13 @@
         <v>2163.393684128423</v>
       </c>
       <c r="D376" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E376" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F376" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -9545,13 +9479,13 @@
         <v>1355.9351448321584</v>
       </c>
       <c r="D377" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E377" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F377" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -9565,13 +9499,13 @@
         <v>800.17062017997989</v>
       </c>
       <c r="D378" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E378" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F378" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -9585,13 +9519,13 @@
         <v>1311.2287577875925</v>
       </c>
       <c r="D379" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E379" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F379" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -9605,13 +9539,13 @@
         <v>1311.2287577875925</v>
       </c>
       <c r="D380" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E380" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F380" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -9625,13 +9559,13 @@
         <v>1313.3122739282614</v>
       </c>
       <c r="D381" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E381" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F381" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -9645,13 +9579,13 @@
         <v>1313.3122739282614</v>
       </c>
       <c r="D382" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E382" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F382" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -9665,13 +9599,13 @@
         <v>1322.0880010139713</v>
       </c>
       <c r="D383" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E383" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F383" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -9685,13 +9619,13 @@
         <v>1374.8622851404446</v>
       </c>
       <c r="D384" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E384" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F384" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -9705,13 +9639,13 @@
         <v>3713.1309290512545</v>
       </c>
       <c r="D385" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E385" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F385" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -9725,13 +9659,13 @@
         <v>1371.8164711846889</v>
       </c>
       <c r="D386" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E386" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F386" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -9745,13 +9679,13 @@
         <v>1378.762174968557</v>
       </c>
       <c r="D387" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E387" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F387" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -9765,13 +9699,13 @@
         <v>1394.4572815817953</v>
       </c>
       <c r="D388" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E388" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F388" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -9785,13 +9719,13 @@
         <v>1394.9515926175086</v>
       </c>
       <c r="D389" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E389" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F389" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -9805,13 +9739,13 @@
         <v>1402.5914767907805</v>
       </c>
       <c r="D390" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E390" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F390" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -9825,13 +9759,13 @@
         <v>1649.0489143681689</v>
       </c>
       <c r="D391" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E391" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F391" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -9845,13 +9779,13 @@
         <v>1807.0198016906022</v>
       </c>
       <c r="D392" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E392" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F392" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -9865,13 +9799,13 @@
         <v>2723.95507326918</v>
       </c>
       <c r="D393" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E393" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F393" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -9885,13 +9819,13 @@
         <v>1377.4674115456239</v>
       </c>
       <c r="D394" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E394" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F394" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -9905,13 +9839,13 @@
         <v>1377.7072547700527</v>
       </c>
       <c r="D395" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E395" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F395" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -9925,13 +9859,13 @@
         <v>1377.7072547700527</v>
       </c>
       <c r="D396" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E396" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F396" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -9945,13 +9879,13 @@
         <v>1377.7072547700527</v>
       </c>
       <c r="D397" t="s">
+        <v>451</v>
+      </c>
+      <c r="E397" t="s">
+        <v>457</v>
+      </c>
+      <c r="F397" t="s">
         <v>461</v>
-      </c>
-      <c r="E397" t="s">
-        <v>467</v>
-      </c>
-      <c r="F397" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -9965,13 +9899,13 @@
         <v>1394.4572815817953</v>
       </c>
       <c r="D398" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E398" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F398" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -9985,13 +9919,13 @@
         <v>1251.9436075930853</v>
       </c>
       <c r="D399" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E399" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F399" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -10005,13 +9939,13 @@
         <v>533.58975108953166</v>
       </c>
       <c r="D400" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E400" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F400" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -10025,13 +9959,13 @@
         <v>1836.5575672487253</v>
       </c>
       <c r="D401" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E401" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F401" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -10045,13 +9979,13 @@
         <v>689.49857166535037</v>
       </c>
       <c r="D402" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E402" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F402" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -10065,13 +9999,13 @@
         <v>708.53783380619495</v>
       </c>
       <c r="D403" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E403" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F403" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -10085,13 +10019,13 @@
         <v>772.40925443856202</v>
       </c>
       <c r="D404" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E404" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F404" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -10105,13 +10039,13 @@
         <v>543.32485107295724</v>
       </c>
       <c r="D405" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E405" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F405" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -10125,13 +10059,13 @@
         <v>2224.3158130782804</v>
       </c>
       <c r="D406" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E406" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F406" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -10145,13 +10079,13 @@
         <v>2982.7215381165483</v>
       </c>
       <c r="D407" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E407" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F407" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -10165,13 +10099,13 @@
         <v>2822.3648931917674</v>
       </c>
       <c r="D408" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E408" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F408" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -10188,10 +10122,10 @@
         <v>30</v>
       </c>
       <c r="E409" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F409" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -10205,13 +10139,13 @@
         <v>1215.863776848304</v>
       </c>
       <c r="D410" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E410" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F410" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -10225,13 +10159,13 @@
         <v>2270.3345130500061</v>
       </c>
       <c r="D411" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E411" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F411" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -10245,13 +10179,13 @@
         <v>2762.8057757368356</v>
       </c>
       <c r="D412" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E412" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F412" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -10265,13 +10199,13 @@
         <v>3092.7852038179917</v>
       </c>
       <c r="D413" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E413" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F413" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -10285,13 +10219,13 @@
         <v>3855.4067097604493</v>
       </c>
       <c r="D414" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E414" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F414" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -10305,13 +10239,13 @@
         <v>6203.6970955570505</v>
       </c>
       <c r="D415" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E415" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F415" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -10325,13 +10259,13 @@
         <v>634.97616192342571</v>
       </c>
       <c r="D416" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E416" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F416" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -10345,13 +10279,13 @@
         <v>566.75051429797099</v>
       </c>
       <c r="D417" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E417" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F417" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -10365,13 +10299,13 @@
         <v>1217.1448906568389</v>
       </c>
       <c r="D418" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E418" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F418" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -10385,13 +10319,13 @@
         <v>1218.3762808700653</v>
       </c>
       <c r="D419" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E419" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F419" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -10405,13 +10339,13 @@
         <v>1566.021234900114</v>
       </c>
       <c r="D420" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E420" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F420" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -10425,13 +10359,13 @@
         <v>1573.7420417873195</v>
       </c>
       <c r="D421" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E421" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F421" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -10445,13 +10379,13 @@
         <v>1608.7991264246787</v>
       </c>
       <c r="D422" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E422" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F422" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -10465,13 +10399,13 @@
         <v>1675.321497167705</v>
       </c>
       <c r="D423" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E423" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F423" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -10485,13 +10419,13 @@
         <v>1735.7844140903017</v>
       </c>
       <c r="D424" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E424" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F424" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -10505,13 +10439,13 @@
         <v>1741.9559897432898</v>
       </c>
       <c r="D425" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E425" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F425" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -10525,13 +10459,13 @@
         <v>2120.1848547778523</v>
       </c>
       <c r="D426" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E426" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F426" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -10545,13 +10479,13 @@
         <v>2204.0071367983855</v>
       </c>
       <c r="D427" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E427" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F427" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -10565,13 +10499,13 @@
         <v>2463.5604044185752</v>
       </c>
       <c r="D428" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E428" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F428" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -10585,13 +10519,13 @@
         <v>2464.3160080727716</v>
       </c>
       <c r="D429" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E429" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F429" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -10605,13 +10539,13 @@
         <v>2502.1449394054616</v>
       </c>
       <c r="D430" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E430" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F430" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -10625,13 +10559,13 @@
         <v>2508.8722493589557</v>
       </c>
       <c r="D431" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E431" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F431" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -10645,13 +10579,13 @@
         <v>2509.7497245702807</v>
       </c>
       <c r="D432" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E432" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F432" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -10665,13 +10599,13 @@
         <v>2604.3220529020055</v>
       </c>
       <c r="D433" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E433" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F433" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -10685,13 +10619,13 @@
         <v>2936.2251016408786</v>
       </c>
       <c r="D434" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E434" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F434" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -10705,13 +10639,13 @@
         <v>3014.9755769399512</v>
       </c>
       <c r="D435" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E435" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F435" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -10725,13 +10659,13 @@
         <v>3014.9755769399512</v>
       </c>
       <c r="D436" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E436" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F436" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -10745,13 +10679,13 @@
         <v>3549.6543722639831</v>
       </c>
       <c r="D437" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E437" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F437" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -10765,13 +10699,13 @@
         <v>3285.7342030087648</v>
       </c>
       <c r="D438" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E438" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F438" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -10785,13 +10719,13 @@
         <v>3438.8546023574836</v>
       </c>
       <c r="D439" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E439" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F439" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -10805,13 +10739,13 @@
         <v>3467.2224009671727</v>
       </c>
       <c r="D440" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E440" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F440" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -10825,13 +10759,13 @@
         <v>3489.7920383749156</v>
       </c>
       <c r="D441" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E441" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F441" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -10845,13 +10779,13 @@
         <v>3679.1736133454228</v>
       </c>
       <c r="D442" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E442" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F442" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -10865,13 +10799,13 @@
         <v>2500.1413710062689</v>
       </c>
       <c r="D443" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E443" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F443" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -10885,13 +10819,13 @@
         <v>1142.592646757729</v>
       </c>
       <c r="D444" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E444" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F444" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -10905,13 +10839,13 @@
         <v>1230.8861524661927</v>
       </c>
       <c r="D445" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E445" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F445" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -10925,13 +10859,13 @@
         <v>1240.8259966655942</v>
       </c>
       <c r="D446" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E446" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F446" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -10945,13 +10879,13 @@
         <v>1505.4315715581035</v>
       </c>
       <c r="D447" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E447" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F447" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -10965,13 +10899,13 @@
         <v>1587.8489182680589</v>
       </c>
       <c r="D448" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E448" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F448" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -10985,13 +10919,13 @@
         <v>1866.3478506732183</v>
       </c>
       <c r="D449" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E449" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F449" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -11005,13 +10939,13 @@
         <v>1919.5345481490147</v>
       </c>
       <c r="D450" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E450" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F450" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -11025,13 +10959,13 @@
         <v>2403.7448692074449</v>
       </c>
       <c r="D451" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E451" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F451" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -11045,13 +10979,13 @@
         <v>2514.06397769263</v>
       </c>
       <c r="D452" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E452" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F452" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -11065,13 +10999,13 @@
         <v>2604.3220529020055</v>
       </c>
       <c r="D453" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="E453" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F453" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -11085,13 +11019,13 @@
         <v>3302.8313200152097</v>
       </c>
       <c r="D454" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E454" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F454" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -11105,13 +11039,13 @@
         <v>3800.2788421227096</v>
       </c>
       <c r="D455" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E455" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F455" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -11125,13 +11059,13 @@
         <v>3854.3966382949679</v>
       </c>
       <c r="D456" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E456" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F456" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -11145,13 +11079,13 @@
         <v>4854.0602727972937</v>
       </c>
       <c r="D457" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E457" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F457" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -11165,13 +11099,13 @@
         <v>4222.252771359209</v>
       </c>
       <c r="D458" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E458" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F458" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -11185,13 +11119,13 @@
         <v>4503.8608909298309</v>
       </c>
       <c r="D459" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E459" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F459" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -11205,13 +11139,13 @@
         <v>2842.7096434525724</v>
       </c>
       <c r="D460" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E460" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F460" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -11225,13 +11159,13 @@
         <v>3671.9997660066101</v>
       </c>
       <c r="D461" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E461" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F461" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
